--- a/results/cifar100_training/results_rehearsal_0.1_cifar100.xlsx
+++ b/results/cifar100_training/results_rehearsal_0.1_cifar100.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.446277579640955</v>
+        <v>3.499462686808763</v>
       </c>
       <c r="D3">
-        <v>3.380983511606852</v>
+        <v>3.230287790298462</v>
       </c>
       <c r="E3">
-        <v>7.82</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.01653526201248169</v>
+        <v>0.01600360698699951</v>
       </c>
       <c r="J3">
-        <v>15.64</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.796709396005646</v>
+        <v>2.825570530596033</v>
       </c>
       <c r="D4">
-        <v>2.85146164894104</v>
+        <v>2.715729951858521</v>
       </c>
       <c r="E4">
-        <v>12.51</v>
+        <v>13.68</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.05109237155914307</v>
+        <v>0.04664220867156983</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.435067345456379</v>
+        <v>2.463677826180922</v>
       </c>
       <c r="D5">
-        <v>2.686074097951253</v>
+        <v>2.457176923751831</v>
       </c>
       <c r="E5">
-        <v>14.94</v>
+        <v>17.2</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.01428184900283814</v>
+        <v>0.01354852414131165</v>
       </c>
       <c r="J5">
-        <v>25.02</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.18080166006476</v>
+        <v>2.198024459644757</v>
       </c>
       <c r="D6">
-        <v>2.395693858464559</v>
+        <v>2.605230808258057</v>
       </c>
       <c r="E6">
-        <v>17.91</v>
+        <v>15.48</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.05451287078857422</v>
+        <v>0.05375710773468018</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.982336583176279</v>
+        <v>1.99813561840395</v>
       </c>
       <c r="D7">
-        <v>2.172394434611002</v>
+        <v>2.117133617401123</v>
       </c>
       <c r="E7">
-        <v>20.12</v>
+        <v>20.9</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.01304858365058899</v>
+        <v>0.01205402126312256</v>
       </c>
       <c r="J7">
-        <v>29.88</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.82319361116828</v>
+        <v>1.827056528192706</v>
       </c>
       <c r="D8">
-        <v>2.071618715922038</v>
+        <v>2.22718358039856</v>
       </c>
       <c r="E8">
-        <v>20.22</v>
+        <v>19.97</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.05851263637542724</v>
+        <v>0.05862295360565185</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.678057933241371</v>
+        <v>1.672042640964542</v>
       </c>
       <c r="D9">
-        <v>2.003773729006449</v>
+        <v>2.351440191268921</v>
       </c>
       <c r="E9">
-        <v>21.63</v>
+        <v>18.82</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.01211800866127014</v>
+        <v>0.01294626026153564</v>
       </c>
       <c r="J9">
-        <v>35.82</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.57948910414688</v>
+        <v>1.550609074862657</v>
       </c>
       <c r="D10">
-        <v>2.011588056882223</v>
+        <v>2.150085926055908</v>
       </c>
       <c r="E10">
-        <v>20.96</v>
+        <v>21.74</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.06034456157684326</v>
+        <v>0.06013313503265381</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.451740575999748</v>
+        <v>1.430658794082372</v>
       </c>
       <c r="D11">
-        <v>2.028564095497131</v>
+        <v>2.3675217628479</v>
       </c>
       <c r="E11">
-        <v>21.77</v>
+        <v>19.52</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.01074467415809631</v>
+        <v>0.01044355459213257</v>
       </c>
       <c r="J11">
-        <v>40.24</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.361459703949409</v>
+        <v>1.331426962287025</v>
       </c>
       <c r="D12">
-        <v>2.076610922813416</v>
+        <v>1.955539464950562</v>
       </c>
       <c r="E12">
-        <v>21.43</v>
+        <v>23.93</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.06325792980194092</v>
+        <v>0.0612562967300415</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.266778158947704</v>
+        <v>1.238439951322775</v>
       </c>
       <c r="D13">
-        <v>2.273611545562744</v>
+        <v>1.921335577964783</v>
       </c>
       <c r="E13">
-        <v>20.95</v>
+        <v>24.37</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.01059944431781769</v>
+        <v>0.01069125847816467</v>
       </c>
       <c r="J13">
-        <v>40.44</v>
+        <v>39.94</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.180752243937516</v>
+        <v>1.143942973782531</v>
       </c>
       <c r="D14">
-        <v>2.167616844177246</v>
+        <v>2.122517108917236</v>
       </c>
       <c r="E14">
-        <v>22.26</v>
+        <v>21.71</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.06536207485198975</v>
+        <v>0.06521053009033204</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.39695672194163</v>
+        <v>1.048899883717562</v>
       </c>
       <c r="D15">
-        <v>1.705391963322957</v>
+        <v>2.112312316894531</v>
       </c>
       <c r="E15">
-        <v>25.44</v>
+        <v>22.75</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.01021599946022034</v>
+        <v>0.01161885809898376</v>
       </c>
       <c r="J15">
-        <v>43.26</v>
+        <v>37.64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.315447456468412</v>
+        <v>0.967874899902175</v>
       </c>
       <c r="D16">
-        <v>1.707284291585286</v>
+        <v>1.99457859992981</v>
       </c>
       <c r="E16">
-        <v>25.35</v>
+        <v>23.9</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.06422246265411377</v>
+        <v>0.06430997734069824</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.26709530411697</v>
+        <v>0.8833705076074179</v>
       </c>
       <c r="D17">
-        <v>1.676140944163005</v>
+        <v>2.437645435333252</v>
       </c>
       <c r="E17">
-        <v>25.14</v>
+        <v>20.94</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.01043228754997253</v>
+        <v>0.01043484015464783</v>
       </c>
       <c r="J17">
-        <v>41.92</v>
+        <v>43.48</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.221851731218943</v>
+        <v>0.8039310637828523</v>
       </c>
       <c r="D18">
-        <v>1.692168871561686</v>
+        <v>2.239463090896606</v>
       </c>
       <c r="E18">
-        <v>25.77</v>
+        <v>23.7</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.06779014301300049</v>
+        <v>0.06663216094970703</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.173764492438091</v>
+        <v>0.9500014940194325</v>
       </c>
       <c r="D19">
-        <v>1.722594857215881</v>
+        <v>1.642257809638977</v>
       </c>
       <c r="E19">
-        <v>25.27</v>
+        <v>27.4</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.01013876941204071</v>
+        <v>0.01143838133811951</v>
       </c>
       <c r="J19">
-        <v>43.54</v>
+        <v>39.04</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.124924300647363</v>
+        <v>0.8567466419355004</v>
       </c>
       <c r="D20">
-        <v>1.746968865394592</v>
+        <v>1.690734505653381</v>
       </c>
       <c r="E20">
-        <v>25.39</v>
+        <v>27.12</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.07125275955200196</v>
+        <v>0.06916983013153076</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.083754412527007</v>
+        <v>0.8061704836060516</v>
       </c>
       <c r="D21">
-        <v>1.681945006052653</v>
+        <v>1.682630896568298</v>
       </c>
       <c r="E21">
-        <v>25.55</v>
+        <v>27.16</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.01027471754550934</v>
+        <v>0.00938700270652771</v>
       </c>
       <c r="J21">
-        <v>42.86</v>
+        <v>47.86</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.044649833586158</v>
+        <v>0.7586852011427415</v>
       </c>
       <c r="D22">
-        <v>1.637795090675354</v>
+        <v>1.723875284194946</v>
       </c>
       <c r="E22">
-        <v>26.01</v>
+        <v>27.38</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.06731548538208008</v>
+        <v>0.06942385940551758</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9911860416575176</v>
+        <v>0.7188763755612668</v>
       </c>
       <c r="D23">
-        <v>1.707775115966797</v>
+        <v>1.755842685699463</v>
       </c>
       <c r="E23">
-        <v>25.6</v>
+        <v>27.03</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.01126615390777588</v>
+        <v>0.00920596158504486</v>
       </c>
       <c r="J23">
-        <v>41.9</v>
+        <v>48.74</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9507206116265398</v>
+        <v>0.6791085727446902</v>
       </c>
       <c r="D24">
-        <v>1.728206952412923</v>
+        <v>1.794402003288269</v>
       </c>
       <c r="E24">
-        <v>25.72</v>
+        <v>27</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.07414247035980225</v>
+        <v>0.06896636333465576</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9062541069054022</v>
+        <v>0.8365939892498793</v>
       </c>
       <c r="D25">
-        <v>1.758375565210978</v>
+        <v>1.632333874702454</v>
       </c>
       <c r="E25">
-        <v>25.28</v>
+        <v>27.94</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.01064718346595764</v>
+        <v>0.01062247161865234</v>
       </c>
       <c r="J25">
-        <v>44.52</v>
+        <v>43.42</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.8567235581273955</v>
+        <v>0.8179057018946757</v>
       </c>
       <c r="D26">
-        <v>1.791395942370097</v>
+        <v>1.64045262336731</v>
       </c>
       <c r="E26">
-        <v>25.23</v>
+        <v>27.82</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.07489245758056641</v>
+        <v>0.07287382183074952</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.8150644166682793</v>
+        <v>0.8025404853103435</v>
       </c>
       <c r="D27">
-        <v>1.756397326787313</v>
+        <v>1.619717717170715</v>
       </c>
       <c r="E27">
-        <v>25.53</v>
+        <v>27.84</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.008613240337371826</v>
+        <v>0.01021215589046478</v>
       </c>
       <c r="J27">
-        <v>50.88</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9414454078286644</v>
+        <v>0.789132091851361</v>
       </c>
       <c r="D28">
-        <v>1.638004581133525</v>
+        <v>1.640614628791809</v>
       </c>
       <c r="E28">
-        <v>26.18</v>
+        <v>27.7</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.06540385208129883</v>
+        <v>0.07185177249908448</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.9198591268159509</v>
+        <v>0.7798131329823385</v>
       </c>
       <c r="D29">
-        <v>1.620864828427633</v>
+        <v>1.651984810829163</v>
       </c>
       <c r="E29">
-        <v>26.19</v>
+        <v>27.55</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.008523992013931274</v>
+        <v>0.009597598981857299</v>
       </c>
       <c r="J29">
-        <v>50.7</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.9111651027105688</v>
+        <v>0.7666352417616717</v>
       </c>
       <c r="D30">
-        <v>1.611163973808289</v>
+        <v>1.64825975894928</v>
       </c>
       <c r="E30">
-        <v>26.26</v>
+        <v>27.65</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.06566145877838135</v>
+        <v>0.07322664966583252</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.8958343437047509</v>
+        <v>0.7562302535614082</v>
       </c>
       <c r="D31">
-        <v>1.676735401153564</v>
+        <v>1.648460030555725</v>
       </c>
       <c r="E31">
-        <v>26.07</v>
+        <v>27.8</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.00876907548904419</v>
+        <v>0.01201823644638061</v>
       </c>
       <c r="J31">
-        <v>50.28</v>
+        <v>41.88</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.8855011332325819</v>
+        <v>0.7445440561370512</v>
       </c>
       <c r="D32">
-        <v>1.636415680249532</v>
+        <v>1.670533776283264</v>
       </c>
       <c r="E32">
-        <v>26.11</v>
+        <v>27.62</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.06563650741577148</v>
+        <v>0.07668480033874511</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.8742857076288238</v>
+        <v>0.7866665731489131</v>
       </c>
       <c r="D33">
-        <v>1.670508742332458</v>
+        <v>1.663703441619873</v>
       </c>
       <c r="E33">
-        <v>26.14</v>
+        <v>27.66</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.008434513664245606</v>
+        <v>0.01045223269462585</v>
       </c>
       <c r="J33">
-        <v>51.54</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.8663836722451497</v>
+        <v>0.782249180089056</v>
       </c>
       <c r="D34">
-        <v>1.677389581998189</v>
+        <v>1.63267719745636</v>
       </c>
       <c r="E34">
-        <v>26.08</v>
+        <v>27.69</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1378,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.06750646629333495</v>
+        <v>0.08174400272369385</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.8549146899362889</v>
+        <v>0.7813703217337616</v>
       </c>
       <c r="D35">
-        <v>1.668013016382853</v>
+        <v>1.654287457466125</v>
       </c>
       <c r="E35">
-        <v>26.08</v>
+        <v>27.68</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1407,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.008752354836463928</v>
+        <v>0.007824307441711425</v>
       </c>
       <c r="J35">
-        <v>50.54</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1421,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.8902233998949934</v>
+        <v>0.7772475834441396</v>
       </c>
       <c r="D36">
-        <v>1.634358366330465</v>
+        <v>1.669283747673035</v>
       </c>
       <c r="E36">
-        <v>26.32</v>
+        <v>27.67</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1436,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.06664967651367187</v>
+        <v>0.06955245513916015</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.8844409328166062</v>
+        <v>0.7751941807502138</v>
       </c>
       <c r="D37">
-        <v>1.665618419647217</v>
+        <v>1.637760996818542</v>
       </c>
       <c r="E37">
-        <v>26.26</v>
+        <v>27.69</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.008577524828910828</v>
+        <v>0.008124058270454407</v>
       </c>
       <c r="J37">
-        <v>50.78</v>
+        <v>54.24</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1479,13 +1479,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.8814631337072791</v>
+        <v>0.7860005650900107</v>
       </c>
       <c r="D38">
-        <v>1.675689776738485</v>
+        <v>1.638202309608459</v>
       </c>
       <c r="E38">
-        <v>26.3</v>
+        <v>27.75</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -1494,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.06826369037628174</v>
+        <v>0.0701553171157837</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.8814480595472383</v>
+        <v>0.7858561140246096</v>
       </c>
       <c r="D39">
-        <v>1.711161573727926</v>
+        <v>1.652618765830994</v>
       </c>
       <c r="E39">
-        <v>26.26</v>
+        <v>27.89</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1523,10 +1523,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.008560385346412659</v>
+        <v>0.00797974054813385</v>
       </c>
       <c r="J39">
-        <v>51.1</v>
+        <v>54.32</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1537,13 +1537,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.8751259019704369</v>
+        <v>0.7844473498057475</v>
       </c>
       <c r="D40">
-        <v>1.624885439872742</v>
+        <v>1.628225684165955</v>
       </c>
       <c r="E40">
-        <v>26.18</v>
+        <v>27.7</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -1552,7 +1552,7 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.06918909034729004</v>
+        <v>0.06941062412261963</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1566,13 +1566,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.8877034710674752</v>
+        <v>0.7810626029968262</v>
       </c>
       <c r="D41">
-        <v>1.657529632250468</v>
+        <v>1.655998468399048</v>
       </c>
       <c r="E41">
-        <v>26.22</v>
+        <v>27.71</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1581,10 +1581,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.008492045593261719</v>
+        <v>0.008081908631324767</v>
       </c>
       <c r="J41">
-        <v>52.02</v>
+        <v>54.76</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1595,13 +1595,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.8868086735407511</v>
+        <v>0.7821085373912238</v>
       </c>
       <c r="D42">
-        <v>1.656061848004659</v>
+        <v>1.639858722686768</v>
       </c>
       <c r="E42">
-        <v>26.13</v>
+        <v>27.72</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -1610,28 +1610,13 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.07010611991882325</v>
+        <v>0.07121034564971924</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>41</v>
-      </c>
-      <c r="C43">
-        <v>0.8851067918102916</v>
-      </c>
-      <c r="D43">
-        <v>1.647409200668335</v>
-      </c>
-      <c r="E43">
-        <v>26.12</v>
-      </c>
       <c r="G43">
         <v>1</v>
       </c>
@@ -1639,28 +1624,13 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.008610784935951233</v>
+        <v>0.008299347448348999</v>
       </c>
       <c r="J43">
-        <v>51.2</v>
+        <v>54.06</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>0.8844475537780824</v>
-      </c>
-      <c r="D44">
-        <v>1.631709774335225</v>
-      </c>
-      <c r="E44">
-        <v>26.19</v>
-      </c>
       <c r="G44">
         <v>2</v>
       </c>
@@ -1668,28 +1638,13 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.0696529052734375</v>
+        <v>0.07183565273284911</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45">
-        <v>43</v>
-      </c>
-      <c r="C45">
-        <v>0.8834770065012986</v>
-      </c>
-      <c r="D45">
-        <v>1.689501285552979</v>
-      </c>
-      <c r="E45">
-        <v>26.24</v>
-      </c>
       <c r="G45">
         <v>1</v>
       </c>
@@ -1697,10 +1652,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.008662528920173645</v>
+        <v>0.008307318902015685</v>
       </c>
       <c r="J45">
-        <v>51.44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1711,7 +1666,7 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.07145621547698974</v>
+        <v>0.07290778522491455</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1725,10 +1680,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.008811456847190856</v>
+        <v>0.007733704137802124</v>
       </c>
       <c r="J47">
-        <v>50.56</v>
+        <v>55.88</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1739,7 +1694,7 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.07111703796386719</v>
+        <v>0.06969667816162109</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1753,10 +1708,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.00892551429271698</v>
+        <v>0.007757407641410827</v>
       </c>
       <c r="J49">
-        <v>50.46</v>
+        <v>55.64</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -1767,7 +1722,7 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.07171747932434082</v>
+        <v>0.07010738105773925</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -1781,10 +1736,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.00886960699558258</v>
+        <v>0.00775169198513031</v>
       </c>
       <c r="J51">
-        <v>51.06</v>
+        <v>55.68</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -1795,7 +1750,7 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.07149038925170899</v>
+        <v>0.07012841053009033</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -1809,10 +1764,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.008277951908111572</v>
+        <v>0.007790806317329407</v>
       </c>
       <c r="J53">
-        <v>52.36</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -1823,7 +1778,7 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.06907742977142334</v>
+        <v>0.07024356212615966</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -1837,10 +1792,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.008313982605934142</v>
+        <v>0.007806021165847778</v>
       </c>
       <c r="J55">
-        <v>52.38</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -1851,7 +1806,7 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.06915795745849609</v>
+        <v>0.07039339885711669</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -1865,10 +1820,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.008323729586601257</v>
+        <v>0.007830004048347473</v>
       </c>
       <c r="J57">
-        <v>52.52</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -1879,7 +1834,7 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.0693000919342041</v>
+        <v>0.07072373523712158</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -1893,10 +1848,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.008369926142692566</v>
+        <v>0.007842065811157227</v>
       </c>
       <c r="J59">
-        <v>52.14</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -1907,7 +1862,7 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.06985483589172363</v>
+        <v>0.07045324268341065</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -1921,10 +1876,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.008371157526969909</v>
+        <v>0.007868682336807251</v>
       </c>
       <c r="J61">
-        <v>52.22</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -1935,7 +1890,7 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.06940747737884521</v>
+        <v>0.0706561294555664</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -1949,10 +1904,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.008373432183265686</v>
+        <v>0.007752333211898803</v>
       </c>
       <c r="J63">
-        <v>52.28</v>
+        <v>55.32</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -1963,7 +1918,7 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.06996638183593749</v>
+        <v>0.07011269454956055</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -1977,10 +1932,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.008414561939239501</v>
+        <v>0.007757781648635865</v>
       </c>
       <c r="J65">
-        <v>52.16</v>
+        <v>55.38</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -1991,7 +1946,7 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.07012315635681152</v>
+        <v>0.07020405502319337</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2005,10 +1960,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.008409008526802063</v>
+        <v>0.007773695111274719</v>
       </c>
       <c r="J67">
-        <v>52.16</v>
+        <v>55.36</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -2019,7 +1974,7 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.07002276821136474</v>
+        <v>0.07018839454650878</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2033,10 +1988,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.008322025537490845</v>
+        <v>0.007767887234687805</v>
       </c>
       <c r="J69">
-        <v>52.64</v>
+        <v>55.34</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -2047,7 +2002,7 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.06951407871246337</v>
+        <v>0.0701390085220337</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2061,10 +2016,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.008319371247291565</v>
+        <v>0.007777177810668946</v>
       </c>
       <c r="J71">
-        <v>52.52</v>
+        <v>55.38</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -2075,7 +2030,7 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.06935329837799072</v>
+        <v>0.07033661632537842</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -2089,10 +2044,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.008323989462852477</v>
+        <v>0.007753878331184387</v>
       </c>
       <c r="J73">
-        <v>52.6</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -2103,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.06959521503448486</v>
+        <v>0.07016989154815674</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2117,10 +2072,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.008335300493240357</v>
+        <v>0.007751955842971801</v>
       </c>
       <c r="J75">
-        <v>52.52</v>
+        <v>55.78</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -2131,7 +2086,7 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.06962068061828613</v>
+        <v>0.07013238086700439</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -2145,10 +2100,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.008327668499946594</v>
+        <v>0.007754627513885498</v>
       </c>
       <c r="J77">
-        <v>52.36</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -2159,7 +2114,7 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.06949731464385986</v>
+        <v>0.07014013996124267</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -2173,10 +2128,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.008312976336479186</v>
+        <v>0.00775565390586853</v>
       </c>
       <c r="J79">
-        <v>52.44</v>
+        <v>55.42</v>
       </c>
     </row>
     <row r="80" spans="7:10">
@@ -2187,7 +2142,7 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.06941408271789551</v>
+        <v>0.07022241077423096</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -2201,10 +2156,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.008319995880126952</v>
+        <v>0.00775820186138153</v>
       </c>
       <c r="J81">
-        <v>52.26</v>
+        <v>55.44</v>
       </c>
     </row>
     <row r="82" spans="7:10">
@@ -2215,93 +2170,9 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.06942996959686279</v>
+        <v>0.07029493827819824</v>
       </c>
       <c r="J82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="7:10">
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>41</v>
-      </c>
-      <c r="I83">
-        <v>0.008321056437492371</v>
-      </c>
-      <c r="J83">
-        <v>52.24</v>
-      </c>
-    </row>
-    <row r="84" spans="7:10">
-      <c r="G84">
-        <v>2</v>
-      </c>
-      <c r="H84">
-        <v>41</v>
-      </c>
-      <c r="I84">
-        <v>0.06958249053955078</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="7:10">
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>42</v>
-      </c>
-      <c r="I85">
-        <v>0.008308543705940247</v>
-      </c>
-      <c r="J85">
-        <v>52.38</v>
-      </c>
-    </row>
-    <row r="86" spans="7:10">
-      <c r="G86">
-        <v>2</v>
-      </c>
-      <c r="H86">
-        <v>42</v>
-      </c>
-      <c r="I86">
-        <v>0.06945055484771728</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="7:10">
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>43</v>
-      </c>
-      <c r="I87">
-        <v>0.008319473314285277</v>
-      </c>
-      <c r="J87">
-        <v>52.48</v>
-      </c>
-    </row>
-    <row r="88" spans="7:10">
-      <c r="G88">
-        <v>2</v>
-      </c>
-      <c r="H88">
-        <v>43</v>
-      </c>
-      <c r="I88">
-        <v>0.06952077236175537</v>
-      </c>
-      <c r="J88">
         <v>0</v>
       </c>
     </row>
@@ -2316,7 +2187,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2375,13 +2246,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.283302317725288</v>
+        <v>4.408351728993077</v>
       </c>
       <c r="D3">
-        <v>3.075498342514038</v>
+        <v>2.859179258346558</v>
       </c>
       <c r="E3">
-        <v>12.36</v>
+        <v>15.68</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2390,10 +2261,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.02789548854827881</v>
+        <v>0.02601224641799927</v>
       </c>
       <c r="J3">
-        <v>0.52</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2404,13 +2275,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.507733749460291</v>
+        <v>2.458430511336173</v>
       </c>
       <c r="D4">
-        <v>2.537064949671427</v>
+        <v>2.650461196899414</v>
       </c>
       <c r="E4">
-        <v>20.45</v>
+        <v>18.16</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2419,10 +2290,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.01387864909172058</v>
+        <v>0.01302033076286316</v>
       </c>
       <c r="J4">
-        <v>24.2</v>
+        <v>29.58</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2433,13 +2304,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.147519073662934</v>
+        <v>2.085974509677579</v>
       </c>
       <c r="D5">
-        <v>2.213726838429769</v>
+        <v>2.426017045974731</v>
       </c>
       <c r="E5">
-        <v>24.84</v>
+        <v>22.53</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2448,10 +2319,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.02438301286697388</v>
+        <v>0.02582950534820557</v>
       </c>
       <c r="J5">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2462,13 +2333,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.930406176602399</v>
+        <v>1.876142215344214</v>
       </c>
       <c r="D6">
-        <v>2.191359440485636</v>
+        <v>2.185569524765015</v>
       </c>
       <c r="E6">
-        <v>24.77</v>
+        <v>26.71</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2477,10 +2348,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.01102026441097259</v>
+        <v>0.01199577231407166</v>
       </c>
       <c r="J6">
-        <v>38.4</v>
+        <v>34.18</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2491,13 +2362,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.766736789102908</v>
+        <v>1.69715101680448</v>
       </c>
       <c r="D7">
-        <v>2.317951679229736</v>
+        <v>2.114391803741455</v>
       </c>
       <c r="E7">
-        <v>24.16</v>
+        <v>26.94</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2506,10 +2377,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.02247171497344971</v>
+        <v>0.02332865982055664</v>
       </c>
       <c r="J7">
-        <v>4.1</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2520,13 +2391,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.64073025032326</v>
+        <v>1.553450958382699</v>
       </c>
       <c r="D8">
-        <v>2.021272818247477</v>
+        <v>2.401920795440674</v>
       </c>
       <c r="E8">
-        <v>28.25</v>
+        <v>24.91</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2535,10 +2406,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.00974619255065918</v>
+        <v>0.01085758337974548</v>
       </c>
       <c r="J8">
-        <v>45.58</v>
+        <v>39.92</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2549,13 +2420,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.519730371899075</v>
+        <v>1.440796231069873</v>
       </c>
       <c r="D9">
-        <v>1.982875784238179</v>
+        <v>2.062609434127808</v>
       </c>
       <c r="E9">
-        <v>30.88</v>
+        <v>29.92</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2564,10 +2435,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.02295026817321777</v>
+        <v>0.02136038179397583</v>
       </c>
       <c r="J9">
-        <v>4.64</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2578,13 +2449,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.42245273148572</v>
+        <v>1.325213155438823</v>
       </c>
       <c r="D10">
-        <v>2.0017036596934</v>
+        <v>2.271861553192139</v>
       </c>
       <c r="E10">
-        <v>30.24</v>
+        <v>28.96</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2593,10 +2464,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.009933354544639587</v>
+        <v>0.009781920838356018</v>
       </c>
       <c r="J10">
-        <v>44.9</v>
+        <v>45.58</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2607,13 +2478,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.324268806422198</v>
+        <v>1.222335633731658</v>
       </c>
       <c r="D11">
-        <v>1.915864109992981</v>
+        <v>2.151171922683716</v>
       </c>
       <c r="E11">
-        <v>31.65</v>
+        <v>30.6</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2622,10 +2493,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.02273426446914673</v>
+        <v>0.02307243614196777</v>
       </c>
       <c r="J11">
-        <v>6.08</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2636,13 +2507,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.227962425903038</v>
+        <v>1.138211052263937</v>
       </c>
       <c r="D12">
-        <v>2.122965375582377</v>
+        <v>2.187034130096436</v>
       </c>
       <c r="E12">
-        <v>28.81</v>
+        <v>29.17</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2651,10 +2522,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.01076131792068481</v>
+        <v>0.009337040305137633</v>
       </c>
       <c r="J12">
-        <v>42.24</v>
+        <v>47.16</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2665,13 +2536,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.148085291738863</v>
+        <v>1.044392659779518</v>
       </c>
       <c r="D13">
-        <v>2.150043964385986</v>
+        <v>2.036372661590576</v>
       </c>
       <c r="E13">
-        <v>29.25</v>
+        <v>31.93</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2680,10 +2551,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.02047387046813965</v>
+        <v>0.02362133283615112</v>
       </c>
       <c r="J13">
-        <v>7.82</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2694,13 +2565,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.074863011307187</v>
+        <v>0.9603061536627431</v>
       </c>
       <c r="D14">
-        <v>2.305352290471395</v>
+        <v>2.416454076766968</v>
       </c>
       <c r="E14">
-        <v>29.03</v>
+        <v>29.89</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2709,10 +2580,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.009290656065940857</v>
+        <v>0.01059476115703583</v>
       </c>
       <c r="J14">
-        <v>48.68</v>
+        <v>43.32</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2723,13 +2594,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.003060736038067</v>
+        <v>0.8837376832962036</v>
       </c>
       <c r="D15">
-        <v>2.002135594685873</v>
+        <v>2.149999618530273</v>
       </c>
       <c r="E15">
-        <v>31.12</v>
+        <v>30.6</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2738,10 +2609,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.02052839126586914</v>
+        <v>0.02047591896057129</v>
       </c>
       <c r="J15">
-        <v>9.84</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2752,13 +2623,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9302975341125771</v>
+        <v>0.8033938556909561</v>
       </c>
       <c r="D16">
-        <v>2.352159023284912</v>
+        <v>2.135165214538574</v>
       </c>
       <c r="E16">
-        <v>31.01</v>
+        <v>30.56</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2767,10 +2638,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.008690169358253478</v>
+        <v>0.00916374123096466</v>
       </c>
       <c r="J16">
-        <v>51.92</v>
+        <v>50.16</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2781,13 +2652,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.042064931216063</v>
+        <v>0.7251789459297734</v>
       </c>
       <c r="D17">
-        <v>1.69327970345815</v>
+        <v>2.626217842102051</v>
       </c>
       <c r="E17">
-        <v>35.13</v>
+        <v>27.21</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2796,10 +2667,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.01975695466995239</v>
+        <v>0.02162519097328186</v>
       </c>
       <c r="J17">
-        <v>10.08</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2810,13 +2681,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9601205357798823</v>
+        <v>0.6627363802925232</v>
       </c>
       <c r="D18">
-        <v>1.74370535214742</v>
+        <v>2.345140933990479</v>
       </c>
       <c r="E18">
-        <v>34.99</v>
+        <v>30.79</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2825,10 +2696,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.00893292784690857</v>
+        <v>0.01019793312549591</v>
       </c>
       <c r="J18">
-        <v>50.4</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2839,13 +2710,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9150445037417941</v>
+        <v>0.7553071269104558</v>
       </c>
       <c r="D19">
-        <v>1.712412595748901</v>
+        <v>1.81289005279541</v>
       </c>
       <c r="E19">
-        <v>35.5</v>
+        <v>35.26</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2854,10 +2725,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.02020076956748963</v>
+        <v>0.02116488518714905</v>
       </c>
       <c r="J19">
-        <v>11.16</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2868,13 +2739,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8738755468968992</v>
+        <v>0.6694266829759844</v>
       </c>
       <c r="D20">
-        <v>1.785809755325317</v>
+        <v>1.839220404624939</v>
       </c>
       <c r="E20">
-        <v>34.92</v>
+        <v>35.27</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2883,10 +2754,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.008950504684448243</v>
+        <v>0.009458659195899964</v>
       </c>
       <c r="J20">
-        <v>52.14</v>
+        <v>49.18</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2897,13 +2768,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8376787503560384</v>
+        <v>0.6270734711039451</v>
       </c>
       <c r="D21">
-        <v>1.75434676806132</v>
+        <v>1.895406484603882</v>
       </c>
       <c r="E21">
-        <v>34.82</v>
+        <v>35.16</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2912,10 +2783,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.02235494728088379</v>
+        <v>0.0211323205947876</v>
       </c>
       <c r="J21">
-        <v>7.64</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2926,13 +2797,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8010676648881701</v>
+        <v>0.5942773237343757</v>
       </c>
       <c r="D22">
-        <v>1.818468570709229</v>
+        <v>1.915679931640625</v>
       </c>
       <c r="E22">
-        <v>35.19</v>
+        <v>35.2</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2941,10 +2812,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.009202670049667358</v>
+        <v>0.009766990780830383</v>
       </c>
       <c r="J22">
-        <v>49.98</v>
+        <v>48.04</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2955,13 +2826,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9395638549769366</v>
+        <v>0.5598899909565526</v>
       </c>
       <c r="D23">
-        <v>1.659800330797831</v>
+        <v>1.949050903320312</v>
       </c>
       <c r="E23">
-        <v>35.86</v>
+        <v>34.67</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2970,10 +2841,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.02258913822174072</v>
+        <v>0.02104605560302734</v>
       </c>
       <c r="J23">
-        <v>8.44</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2984,13 +2855,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9231621834966871</v>
+        <v>0.5319284438606231</v>
       </c>
       <c r="D24">
-        <v>1.663166125615438</v>
+        <v>1.998034238815308</v>
       </c>
       <c r="E24">
-        <v>36.24</v>
+        <v>34.52</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2999,10 +2870,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.009677129626274109</v>
+        <v>0.009057604956626893</v>
       </c>
       <c r="J24">
-        <v>50.06</v>
+        <v>52.28</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3013,13 +2884,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9082751830418905</v>
+        <v>0.6553168200677441</v>
       </c>
       <c r="D25">
-        <v>1.67051112651825</v>
+        <v>1.797030687332153</v>
       </c>
       <c r="E25">
-        <v>36.14</v>
+        <v>36.25</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -3028,10 +2899,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.02297133531570435</v>
+        <v>0.02323447761535645</v>
       </c>
       <c r="J25">
-        <v>8.48</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3042,13 +2913,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.8944431772938481</v>
+        <v>0.6358101103574999</v>
       </c>
       <c r="D26">
-        <v>1.680113871892293</v>
+        <v>1.811137318611145</v>
       </c>
       <c r="E26">
-        <v>35.95</v>
+        <v>36.04</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3057,10 +2928,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.009588074684143067</v>
+        <v>0.01091354608535767</v>
       </c>
       <c r="J26">
-        <v>49.58</v>
+        <v>47.72</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3071,13 +2942,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.8841338802267004</v>
+        <v>0.6273278997790429</v>
       </c>
       <c r="D27">
-        <v>1.677640477816264</v>
+        <v>1.813042163848877</v>
       </c>
       <c r="E27">
-        <v>35.94</v>
+        <v>35.91</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3086,10 +2957,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.02068411512374878</v>
+        <v>0.02291511993408203</v>
       </c>
       <c r="J27">
-        <v>10.92</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3100,13 +2971,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.874198094120732</v>
+        <v>0.6127376292021044</v>
       </c>
       <c r="D28">
-        <v>1.681107918421427</v>
+        <v>1.823656320571899</v>
       </c>
       <c r="E28">
-        <v>35.88</v>
+        <v>36.06</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -3115,10 +2986,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.009253876113891602</v>
+        <v>0.009245672464370728</v>
       </c>
       <c r="J28">
-        <v>51.32</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3129,13 +3000,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.9172823049404003</v>
+        <v>0.6025240332368882</v>
       </c>
       <c r="D29">
-        <v>1.678240696589152</v>
+        <v>1.834373116493225</v>
       </c>
       <c r="E29">
-        <v>36.03</v>
+        <v>36.07</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -3144,10 +3015,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.02153605346679687</v>
+        <v>0.02287377471923828</v>
       </c>
       <c r="J29">
-        <v>11.86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3158,13 +3029,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.9132695096510428</v>
+        <v>0.5930945976607261</v>
       </c>
       <c r="D30">
-        <v>1.667134046554565</v>
+        <v>1.834322214126587</v>
       </c>
       <c r="E30">
-        <v>36.11</v>
+        <v>35.96</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3173,10 +3044,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.010263671875</v>
+        <v>0.009397305488586426</v>
       </c>
       <c r="J30">
-        <v>50.16</v>
+        <v>51.12</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3187,13 +3058,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.9115607239581921</v>
+        <v>0.634491372012323</v>
       </c>
       <c r="D31">
-        <v>1.680222511291504</v>
+        <v>1.797198891639709</v>
       </c>
       <c r="E31">
-        <v>36.09</v>
+        <v>36.19</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3202,10 +3073,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.01921467642784119</v>
+        <v>0.02531581478118896</v>
       </c>
       <c r="J31">
-        <v>11.98</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3216,13 +3087,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.9092930197715759</v>
+        <v>0.6283162957237612</v>
       </c>
       <c r="D32">
-        <v>1.699025948842366</v>
+        <v>1.800982475280762</v>
       </c>
       <c r="E32">
-        <v>36.28</v>
+        <v>35.98</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3231,10 +3102,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.007386178851127624</v>
+        <v>0.01208023653030395</v>
       </c>
       <c r="J32">
-        <v>58.28</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3245,13 +3116,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.9025434171711957</v>
+        <v>0.6261186325742353</v>
       </c>
       <c r="D33">
-        <v>1.666484514872233</v>
+        <v>1.799665808677673</v>
       </c>
       <c r="E33">
-        <v>36.16</v>
+        <v>36.09</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3260,10 +3131,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.01889772348403931</v>
+        <v>0.02329022455215454</v>
       </c>
       <c r="J33">
-        <v>12.4</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3274,13 +3145,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.9158340661614029</v>
+        <v>0.62633399905697</v>
       </c>
       <c r="D34">
-        <v>1.701841235160828</v>
+        <v>1.802897572517395</v>
       </c>
       <c r="E34">
-        <v>35.98999999999999</v>
+        <v>36.1</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3289,10 +3160,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.007564799046516419</v>
+        <v>0.01048341755867004</v>
       </c>
       <c r="J34">
-        <v>57.58</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3303,13 +3174,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.9140046216823436</v>
+        <v>0.6224138604537133</v>
       </c>
       <c r="D35">
-        <v>1.659302632013957</v>
+        <v>1.80338728427887</v>
       </c>
       <c r="E35">
-        <v>35.97</v>
+        <v>36.07</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3318,10 +3189,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.01927420048713684</v>
+        <v>0.01987981324195862</v>
       </c>
       <c r="J35">
-        <v>12.78</v>
+        <v>13.36</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3332,13 +3203,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.9142371182088499</v>
+        <v>0.6314636069920755</v>
       </c>
       <c r="D36">
-        <v>1.674149870872498</v>
+        <v>1.79992938041687</v>
       </c>
       <c r="E36">
-        <v>35.91</v>
+        <v>36.06</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3347,10 +3218,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.007493538165092468</v>
+        <v>0.007839522075653076</v>
       </c>
       <c r="J36">
-        <v>58.22</v>
+        <v>57.16</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3361,13 +3232,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.9129482282532586</v>
+        <v>0.6328492082895771</v>
       </c>
       <c r="D37">
-        <v>1.66967511177063</v>
+        <v>1.79754376411438</v>
       </c>
       <c r="E37">
-        <v>36.11</v>
+        <v>36.2</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3376,10 +3247,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.01932176852226257</v>
+        <v>0.01973092799186707</v>
       </c>
       <c r="J37">
-        <v>12.44</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3390,13 +3261,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.9110330224037171</v>
+        <v>0.6326746806021659</v>
       </c>
       <c r="D38">
-        <v>1.667169372240702</v>
+        <v>1.798907995223999</v>
       </c>
       <c r="E38">
-        <v>36.02</v>
+        <v>36.1</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3405,10 +3276,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.007566548752784729</v>
+        <v>0.008048188710212708</v>
       </c>
       <c r="J38">
-        <v>57.4</v>
+        <v>56.84</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3419,13 +3290,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.9113057767903363</v>
+        <v>0.6315239970722506</v>
       </c>
       <c r="D39">
-        <v>1.656007329622905</v>
+        <v>1.797635674476624</v>
       </c>
       <c r="E39">
-        <v>35.81</v>
+        <v>36.12</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3434,10 +3305,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.01939822220802307</v>
+        <v>0.02054999351501465</v>
       </c>
       <c r="J39">
-        <v>12.34</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3448,13 +3319,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.9095241149266561</v>
+        <v>0.6303948639861999</v>
       </c>
       <c r="D40">
-        <v>1.64944326877594</v>
+        <v>1.801202535629272</v>
       </c>
       <c r="E40">
-        <v>36.07</v>
+        <v>36.02</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3463,28 +3334,13 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.007752285122871399</v>
+        <v>0.008149892592430114</v>
       </c>
       <c r="J40">
-        <v>57.3</v>
+        <v>56.94</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41">
-        <v>2</v>
-      </c>
-      <c r="B41">
-        <v>39</v>
-      </c>
-      <c r="C41">
-        <v>0.9105509135458204</v>
-      </c>
-      <c r="D41">
-        <v>1.662109653155009</v>
-      </c>
-      <c r="E41">
-        <v>36.06</v>
-      </c>
       <c r="G41">
         <v>1</v>
       </c>
@@ -3492,28 +3348,13 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.01990488233566284</v>
+        <v>0.02057068061828613</v>
       </c>
       <c r="J41">
-        <v>13.34</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <v>0.9101341362352724</v>
-      </c>
-      <c r="D42">
-        <v>1.685942610104879</v>
-      </c>
-      <c r="E42">
-        <v>36.08</v>
-      </c>
       <c r="G42">
         <v>2</v>
       </c>
@@ -3521,28 +3362,13 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.008007954788208007</v>
+        <v>0.008314086818695068</v>
       </c>
       <c r="J42">
-        <v>57.04</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43">
-        <v>41</v>
-      </c>
-      <c r="C43">
-        <v>0.9088246438238355</v>
-      </c>
-      <c r="D43">
-        <v>1.674986243247986</v>
-      </c>
-      <c r="E43">
-        <v>36.05</v>
-      </c>
       <c r="G43">
         <v>1</v>
       </c>
@@ -3550,28 +3376,13 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.01871453514099121</v>
+        <v>0.02079888925552368</v>
       </c>
       <c r="J43">
-        <v>12.78</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>0.9086580952008565</v>
-      </c>
-      <c r="D44">
-        <v>1.668290217717489</v>
-      </c>
-      <c r="E44">
-        <v>36.12</v>
-      </c>
       <c r="G44">
         <v>2</v>
       </c>
@@ -3579,28 +3390,13 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.007275211834907531</v>
+        <v>0.008412463784217835</v>
       </c>
       <c r="J44">
-        <v>58.94</v>
+        <v>55.72</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <v>43</v>
-      </c>
-      <c r="C45">
-        <v>0.906001999201598</v>
-      </c>
-      <c r="D45">
-        <v>1.66809622446696</v>
-      </c>
-      <c r="E45">
-        <v>35.97</v>
-      </c>
       <c r="G45">
         <v>1</v>
       </c>
@@ -3608,10 +3404,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.01864664759635925</v>
+        <v>0.02102528681755066</v>
       </c>
       <c r="J45">
-        <v>13.1</v>
+        <v>13.34</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3622,10 +3418,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.007280975103378296</v>
+        <v>0.008679841232299805</v>
       </c>
       <c r="J46">
-        <v>59.38</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3636,10 +3432,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.01877481136322021</v>
+        <v>0.01961835799217224</v>
       </c>
       <c r="J47">
-        <v>12.88</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3650,10 +3446,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.007291705107688904</v>
+        <v>0.007777712941169738</v>
       </c>
       <c r="J48">
-        <v>59.4</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="49" spans="7:10">
@@ -3664,10 +3460,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.01873434262275696</v>
+        <v>0.01980174984931946</v>
       </c>
       <c r="J49">
-        <v>12.96</v>
+        <v>14.24</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -3678,10 +3474,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.007318951439857483</v>
+        <v>0.007818430662155151</v>
       </c>
       <c r="J50">
-        <v>58.94</v>
+        <v>57.84</v>
       </c>
     </row>
     <row r="51" spans="7:10">
@@ -3692,10 +3488,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.0187818660736084</v>
+        <v>0.01970368041992188</v>
       </c>
       <c r="J51">
-        <v>13.14</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -3706,10 +3502,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.007345862340927124</v>
+        <v>0.007852959537506103</v>
       </c>
       <c r="J52">
-        <v>58.74</v>
+        <v>57.66</v>
       </c>
     </row>
     <row r="53" spans="7:10">
@@ -3720,10 +3516,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.01874170088768005</v>
+        <v>0.01977757701873779</v>
       </c>
       <c r="J53">
-        <v>13.28</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -3734,10 +3530,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.007379284000396729</v>
+        <v>0.007867524337768555</v>
       </c>
       <c r="J54">
-        <v>58.48</v>
+        <v>57.94</v>
       </c>
     </row>
     <row r="55" spans="7:10">
@@ -3748,10 +3544,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.01875301718711853</v>
+        <v>0.01983714170455933</v>
       </c>
       <c r="J55">
-        <v>12.84</v>
+        <v>14.44</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -3762,10 +3558,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.007263573455810547</v>
+        <v>0.00790891215801239</v>
       </c>
       <c r="J56">
-        <v>59.22</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="57" spans="7:10">
@@ -3776,10 +3572,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.01876387581825256</v>
+        <v>0.01987043657302856</v>
       </c>
       <c r="J57">
-        <v>13</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -3790,10 +3586,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.007257799148559571</v>
+        <v>0.007942197513580322</v>
       </c>
       <c r="J58">
-        <v>59.22</v>
+        <v>57.64</v>
       </c>
     </row>
     <row r="59" spans="7:10">
@@ -3804,10 +3600,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.01875697274208069</v>
+        <v>0.01964419775009155</v>
       </c>
       <c r="J59">
-        <v>12.92</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -3818,10 +3614,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.00726904010772705</v>
+        <v>0.007771945261955261</v>
       </c>
       <c r="J60">
-        <v>59.26</v>
+        <v>58.04</v>
       </c>
     </row>
     <row r="61" spans="7:10">
@@ -3832,10 +3628,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.01868884229660034</v>
+        <v>0.01972220788002014</v>
       </c>
       <c r="J61">
-        <v>13.2</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -3846,10 +3642,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.007274885320663452</v>
+        <v>0.007776502013206482</v>
       </c>
       <c r="J62">
-        <v>59.36</v>
+        <v>57.86</v>
       </c>
     </row>
     <row r="63" spans="7:10">
@@ -3860,10 +3656,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.01872168025970459</v>
+        <v>0.01966616086959839</v>
       </c>
       <c r="J63">
-        <v>13.08</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -3874,10 +3670,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.007276502537727356</v>
+        <v>0.007783457684516906</v>
       </c>
       <c r="J64">
-        <v>59.24</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -3888,10 +3684,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.01871061563491821</v>
+        <v>0.01969336080551147</v>
       </c>
       <c r="J65">
-        <v>12.82</v>
+        <v>14.26</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -3902,10 +3698,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.007259482645988464</v>
+        <v>0.007782430124282837</v>
       </c>
       <c r="J66">
-        <v>59.16</v>
+        <v>57.94</v>
       </c>
     </row>
     <row r="67" spans="7:10">
@@ -3916,10 +3712,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.01878163981437683</v>
+        <v>0.01961949367523193</v>
       </c>
       <c r="J67">
-        <v>12.68</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -3930,10 +3726,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.00725173909664154</v>
+        <v>0.007792272472381592</v>
       </c>
       <c r="J68">
-        <v>59.26</v>
+        <v>57.86</v>
       </c>
     </row>
     <row r="69" spans="7:10">
@@ -3944,10 +3740,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.01877210650444031</v>
+        <v>0.01964355945587158</v>
       </c>
       <c r="J69">
-        <v>12.8</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -3958,10 +3754,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.007260191440582276</v>
+        <v>0.007767085361480713</v>
       </c>
       <c r="J70">
-        <v>59.02</v>
+        <v>57.98</v>
       </c>
     </row>
     <row r="71" spans="7:10">
@@ -3972,10 +3768,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.01874827632904053</v>
+        <v>0.01960838842391968</v>
       </c>
       <c r="J71">
-        <v>12.94</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -3986,10 +3782,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.007262681818008423</v>
+        <v>0.007769293189048767</v>
       </c>
       <c r="J72">
-        <v>59.28</v>
+        <v>58.02</v>
       </c>
     </row>
     <row r="73" spans="7:10">
@@ -4000,10 +3796,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.01871705031394958</v>
+        <v>0.0196141854763031</v>
       </c>
       <c r="J73">
-        <v>12.76</v>
+        <v>14.22</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -4014,10 +3810,10 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.007259370350837707</v>
+        <v>0.007774175238609314</v>
       </c>
       <c r="J74">
-        <v>59.28</v>
+        <v>57.98</v>
       </c>
     </row>
     <row r="75" spans="7:10">
@@ -4028,10 +3824,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.01875352873802185</v>
+        <v>0.01968920292854309</v>
       </c>
       <c r="J75">
-        <v>12.74</v>
+        <v>14.22</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -4042,10 +3838,10 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.007259848999977112</v>
+        <v>0.007766434955596924</v>
       </c>
       <c r="J76">
-        <v>58.88</v>
+        <v>58.02</v>
       </c>
     </row>
     <row r="77" spans="7:10">
@@ -4056,10 +3852,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.01869568419456482</v>
+        <v>0.01970573921203613</v>
       </c>
       <c r="J77">
-        <v>13.04</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -4070,150 +3866,10 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.007270373439788818</v>
+        <v>0.007764173769950867</v>
       </c>
       <c r="J78">
-        <v>59.1</v>
-      </c>
-    </row>
-    <row r="79" spans="7:10">
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>39</v>
-      </c>
-      <c r="I79">
-        <v>0.01883037805557251</v>
-      </c>
-      <c r="J79">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="80" spans="7:10">
-      <c r="G80">
-        <v>2</v>
-      </c>
-      <c r="H80">
-        <v>39</v>
-      </c>
-      <c r="I80">
-        <v>0.007273854494094849</v>
-      </c>
-      <c r="J80">
-        <v>59.32</v>
-      </c>
-    </row>
-    <row r="81" spans="7:10">
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>40</v>
-      </c>
-      <c r="I81">
-        <v>0.0187308002948761</v>
-      </c>
-      <c r="J81">
-        <v>12.98</v>
-      </c>
-    </row>
-    <row r="82" spans="7:10">
-      <c r="G82">
-        <v>2</v>
-      </c>
-      <c r="H82">
-        <v>40</v>
-      </c>
-      <c r="I82">
-        <v>0.007264519309997559</v>
-      </c>
-      <c r="J82">
-        <v>59.18</v>
-      </c>
-    </row>
-    <row r="83" spans="7:10">
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>41</v>
-      </c>
-      <c r="I83">
-        <v>0.01870877642631531</v>
-      </c>
-      <c r="J83">
-        <v>12.98</v>
-      </c>
-    </row>
-    <row r="84" spans="7:10">
-      <c r="G84">
-        <v>2</v>
-      </c>
-      <c r="H84">
-        <v>41</v>
-      </c>
-      <c r="I84">
-        <v>0.007270788931846618</v>
-      </c>
-      <c r="J84">
-        <v>59.12</v>
-      </c>
-    </row>
-    <row r="85" spans="7:10">
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>42</v>
-      </c>
-      <c r="I85">
-        <v>0.01875625581741333</v>
-      </c>
-      <c r="J85">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="86" spans="7:10">
-      <c r="G86">
-        <v>2</v>
-      </c>
-      <c r="H86">
-        <v>42</v>
-      </c>
-      <c r="I86">
-        <v>0.007257080721855163</v>
-      </c>
-      <c r="J86">
-        <v>59.34</v>
-      </c>
-    </row>
-    <row r="87" spans="7:10">
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>43</v>
-      </c>
-      <c r="I87">
-        <v>0.01873584661483765</v>
-      </c>
-      <c r="J87">
-        <v>12.98</v>
-      </c>
-    </row>
-    <row r="88" spans="7:10">
-      <c r="G88">
-        <v>2</v>
-      </c>
-      <c r="H88">
-        <v>43</v>
-      </c>
-      <c r="I88">
-        <v>0.007266606926918029</v>
-      </c>
-      <c r="J88">
-        <v>58.96</v>
+        <v>57.94</v>
       </c>
     </row>
   </sheetData>
